--- a/iselUssSyncV2/OutputWSL/20220427_1303_D50L474W90Q40U0.47H107G2_C_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220427_1303_D50L474W90Q40U0.47H107G2_C_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="0">
-        <v>107.29603174603176</v>
+        <v>107.29696251305272</v>
       </c>
       <c r="F2" s="0">
-        <v>107.29166666666669</v>
+        <v>107.29259743368765</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="0">
-        <v>107.73992031872507</v>
+        <v>107.7421955269986</v>
       </c>
       <c r="F3" s="0">
-        <v>108.92780876494027</v>
+        <v>108.93008397321373</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="0">
-        <v>106.6456746031746</v>
+        <v>106.64842553681434</v>
       </c>
       <c r="F4" s="0">
-        <v>110.94138888888888</v>
+        <v>110.94413982252864</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>50</v>
       </c>
       <c r="E5" s="0">
-        <v>105.79306772908363</v>
+        <v>105.79587381928761</v>
       </c>
       <c r="F5" s="0">
-        <v>111.59597609561754</v>
+        <v>111.59878218582149</v>
       </c>
     </row>
     <row r="6">
@@ -202,10 +202,10 @@
         <v>50</v>
       </c>
       <c r="E6" s="0">
-        <v>104.39916666666666</v>
+        <v>104.40202101886429</v>
       </c>
       <c r="F6" s="0">
-        <v>112.26976190476194</v>
+        <v>112.27261625695957</v>
       </c>
     </row>
     <row r="7">
@@ -222,10 +222,10 @@
         <v>50</v>
       </c>
       <c r="E7" s="0">
-        <v>101.98043824701196</v>
+        <v>101.98333396663278</v>
       </c>
       <c r="F7" s="0">
-        <v>111.5735059760956</v>
+        <v>111.57640169571643</v>
       </c>
     </row>
     <row r="8">
@@ -242,10 +242,10 @@
         <v>50</v>
       </c>
       <c r="E8" s="0">
-        <v>97.83555555555553</v>
+        <v>97.838485748028972</v>
       </c>
       <c r="F8" s="0">
-        <v>107.00730158730154</v>
+        <v>107.01023177977497</v>
       </c>
     </row>
     <row r="9">
@@ -262,10 +262,10 @@
         <v>50</v>
       </c>
       <c r="E9" s="0">
-        <v>95.343373015873027</v>
+        <v>95.346315067007765</v>
       </c>
       <c r="F9" s="0">
-        <v>100.37150793650792</v>
+        <v>100.37444998764271</v>
       </c>
     </row>
     <row r="10">
@@ -282,7 +282,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="0">
-        <v>92.358247011952173</v>
+        <v>92.361199818616967</v>
       </c>
       <c r="F10" s="0"/>
     </row>
@@ -300,7 +300,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="0">
-        <v>89.168809523809514</v>
+        <v>89.171771982873011</v>
       </c>
       <c r="F11" s="0"/>
     </row>
@@ -318,7 +318,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="0">
-        <v>87.365776892430276</v>
+        <v>87.368743764018916</v>
       </c>
       <c r="F12" s="0"/>
     </row>
@@ -336,7 +336,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="0">
-        <v>85.785515873015868</v>
+        <v>85.788486881346813</v>
       </c>
       <c r="F13" s="0"/>
     </row>
@@ -354,7 +354,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="0">
-        <v>83.542948207171293</v>
+        <v>83.545923076461747</v>
       </c>
       <c r="F14" s="0"/>
     </row>
@@ -372,7 +372,7 @@
         <v>50</v>
       </c>
       <c r="E15" s="0">
-        <v>81.641587301587336</v>
+        <v>81.644565756054391</v>
       </c>
       <c r="F15" s="0"/>
     </row>
@@ -390,7 +390,7 @@
         <v>50</v>
       </c>
       <c r="E16" s="0">
-        <v>78.310952380952386</v>
+        <v>78.313937178424382</v>
       </c>
       <c r="F16" s="0"/>
     </row>
@@ -408,7 +408,7 @@
         <v>50</v>
       </c>
       <c r="E17" s="0">
-        <v>74.653214285714284</v>
+        <v>74.656204323059896</v>
       </c>
       <c r="F17" s="0"/>
     </row>
@@ -426,10 +426,10 @@
         <v>50</v>
       </c>
       <c r="E18" s="0">
-        <v>71.163306772908371</v>
+        <v>71.166300946996259</v>
       </c>
       <c r="F18" s="0">
-        <v>39.120438247011947</v>
+        <v>39.123432421099857</v>
       </c>
     </row>
     <row r="19">
@@ -446,10 +446,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="0">
-        <v>65.102310756972088</v>
+        <v>65.10530989515081</v>
       </c>
       <c r="F19" s="0">
-        <v>38.259203187250996</v>
+        <v>38.262202325429683</v>
       </c>
     </row>
     <row r="20">
@@ -466,10 +466,10 @@
         <v>50</v>
       </c>
       <c r="E20" s="0">
-        <v>58.37322709163346</v>
+        <v>58.376226229812154</v>
       </c>
       <c r="F20" s="0">
-        <v>39.745657370517925</v>
+        <v>39.748656508696612</v>
       </c>
     </row>
     <row r="21">
@@ -486,10 +486,10 @@
         <v>50</v>
       </c>
       <c r="E21" s="0">
-        <v>52.544501992031854</v>
+        <v>52.547494235640045</v>
       </c>
       <c r="F21" s="0">
-        <v>43.990478087649414</v>
+        <v>43.993470331257562</v>
       </c>
     </row>
     <row r="22">
@@ -506,10 +506,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="0">
-        <v>47.731388888888894</v>
+        <v>47.734367343355977</v>
       </c>
       <c r="F22" s="0">
-        <v>50.639285714285705</v>
+        <v>50.642264168752817</v>
       </c>
     </row>
     <row r="23">
@@ -526,10 +526,10 @@
         <v>50</v>
       </c>
       <c r="E23" s="0">
-        <v>44.440595238095234</v>
+        <v>44.443553008850763</v>
       </c>
       <c r="F23" s="0">
-        <v>63.120238095238101</v>
+        <v>63.12319586599363</v>
       </c>
     </row>
     <row r="24">
@@ -546,10 +546,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="0">
-        <v>40.57769841269841</v>
+        <v>40.580594132319206</v>
       </c>
       <c r="F24" s="0">
-        <v>78.611746031746037</v>
+        <v>78.614641751366818</v>
       </c>
     </row>
     <row r="25">
@@ -566,10 +566,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="0">
-        <v>42.018207171314742</v>
+        <v>42.021013261518689</v>
       </c>
       <c r="F25" s="0">
-        <v>66.914741035856565</v>
+        <v>66.917547126060555</v>
       </c>
     </row>
     <row r="26">
@@ -586,10 +586,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="0">
-        <v>54.646230158730148</v>
+        <v>54.648919041235175</v>
       </c>
       <c r="F26" s="0">
-        <v>54.039166666666667</v>
+        <v>54.041855549171693</v>
       </c>
     </row>
     <row r="27">
@@ -606,10 +606,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="0">
-        <v>81.992828685258957</v>
+        <v>81.995372781782947</v>
       </c>
       <c r="F27" s="0">
-        <v>52.622270916334664</v>
+        <v>52.624815012858647</v>
       </c>
     </row>
     <row r="28">
@@ -626,10 +626,10 @@
         <v>50</v>
       </c>
       <c r="E28" s="0">
-        <v>70.58912350597609</v>
+        <v>70.591495238236945</v>
       </c>
       <c r="F28" s="0">
-        <v>54.971434262948215</v>
+        <v>54.973805995209055</v>
       </c>
     </row>
     <row r="29">
@@ -646,10 +646,10 @@
         <v>50</v>
       </c>
       <c r="E29" s="0">
-        <v>50.162828685258958</v>
+        <v>50.165000474974555</v>
       </c>
       <c r="F29" s="0">
-        <v>63.189920318725093</v>
+        <v>63.192092108440697</v>
       </c>
     </row>
     <row r="30">
@@ -666,10 +666,10 @@
         <v>50</v>
       </c>
       <c r="E30" s="0">
-        <v>76.413027888446209</v>
+        <v>76.414717058224994</v>
       </c>
       <c r="F30" s="0">
-        <v>72.645776892430291</v>
+        <v>72.647466062209091</v>
       </c>
     </row>
   </sheetData>
